--- a/private/sijiache/sellcarinfo.xlsx
+++ b/private/sijiache/sellcarinfo.xlsx
@@ -373,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K66"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -406,19 +406,22 @@
       <c r="J1" t="str">
         <v>创建时间</v>
       </c>
+      <c r="K1" t="str">
+        <v>备注</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>布加迪</v>
+        <v>蒙迪欧-致胜2009款</v>
       </c>
       <c r="B2" t="str">
-        <v>白色</v>
+        <v>黑色</v>
       </c>
       <c r="C2" t="str">
-        <v>300万</v>
+        <v>20多万</v>
       </c>
       <c r="D2" t="str">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="E2" t="str">
         <v>手自一体</v>
@@ -426,81 +429,2059 @@
       <c r="F2" t="str">
         <v>是</v>
       </c>
-      <c r="G2" s="1">
-        <v>42338.666666666664</v>
-      </c>
       <c r="H2" t="str">
-        <v>想卖车</v>
+        <v>问问价</v>
       </c>
       <c r="I2" t="str">
-        <v>13344556677</v>
+        <v>18637188006</v>
       </c>
       <c r="J2" t="str">
-        <v>2015-12-1 15:57</v>
+        <v>2015-12-08 11:49</v>
+      </c>
+      <c r="K2" t="str">
+        <v>去年3月份发动机底壳磕了下，打开修了。</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>奇瑞QQ</v>
+        <v>东风雪铁龙c5</v>
       </c>
       <c r="B3" t="str">
-        <v>绿色</v>
+        <v>皓月灰</v>
       </c>
       <c r="C3" t="str">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D3" t="str">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="E3" t="str">
-        <v>AT自动挡</v>
+        <v>手自一体</v>
       </c>
       <c r="F3" t="str">
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G3" s="1">
-        <v>42339.666666666664</v>
+        <v>40621.666666666664</v>
       </c>
       <c r="H3" t="str">
         <v>问问价</v>
       </c>
       <c r="I3" t="str">
-        <v>13344556677</v>
+        <v>15324888166</v>
       </c>
       <c r="J3" t="str">
-        <v>2015-12-1 15:56</v>
+        <v>2015-12-08 11:47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>五菱之光</v>
+        <v>丰田威驰</v>
       </c>
       <c r="B4" t="str">
         <v>银色</v>
       </c>
       <c r="C4" t="str">
-        <v>5</v>
+        <v>9.0万</v>
       </c>
       <c r="D4" t="str">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="E4" t="str">
-        <v>MT手动挡</v>
+        <v>AT自动挡</v>
       </c>
       <c r="F4" t="str">
-        <v>是</v>
-      </c>
-      <c r="G4" s="1">
-        <v>42340.666666666664</v>
+        <v>否</v>
       </c>
       <c r="H4" t="str">
         <v>想卖车</v>
       </c>
       <c r="I4" t="str">
-        <v>13322332233</v>
+        <v>13503717677</v>
       </c>
       <c r="J4" t="str">
-        <v>2015-12-1 15:54</v>
+        <v>2015-12-08 11:36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>菲亚特菲翔</v>
+      </c>
+      <c r="B5" t="str">
+        <v>钛金灰</v>
+      </c>
+      <c r="C5" t="str">
+        <v>13.6万</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1.4t</v>
+      </c>
+      <c r="E5" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F5" t="str">
+        <v>是</v>
+      </c>
+      <c r="G5" s="1">
+        <v>41401.666666666664</v>
+      </c>
+      <c r="H5" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I5" t="str">
+        <v>13071037775</v>
+      </c>
+      <c r="J5" t="str">
+        <v>2015-12-08 11:29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>起亚赛拉图</v>
+      </c>
+      <c r="B6" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="C6" t="str">
+        <v>8.1万</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E6" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F6" t="str">
+        <v>否</v>
+      </c>
+      <c r="G6" s="1">
+        <v>39514.666666666664</v>
+      </c>
+      <c r="H6" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I6" t="str">
+        <v>13592688650</v>
+      </c>
+      <c r="J6" t="str">
+        <v>2015-12-08 11:28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>宝来</v>
+      </c>
+      <c r="B7" t="str">
+        <v>银色</v>
+      </c>
+      <c r="C7" t="str">
+        <v>11.3</v>
+      </c>
+      <c r="D7" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E7" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F7" t="str">
+        <v>是</v>
+      </c>
+      <c r="G7" s="1">
+        <v>41962.666666666664</v>
+      </c>
+      <c r="H7" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I7" t="str">
+        <v>18211600555</v>
+      </c>
+      <c r="J7" t="str">
+        <v>2015-12-08 11:28</v>
+      </c>
+      <c r="K7" t="str">
+        <v>看看还保值不？</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>菲亚特菲翔</v>
+      </c>
+      <c r="B8" t="str">
+        <v>钛金灰</v>
+      </c>
+      <c r="C8" t="str">
+        <v>13.6万</v>
+      </c>
+      <c r="D8" t="str">
+        <v>1.4t</v>
+      </c>
+      <c r="E8" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F8" t="str">
+        <v>是</v>
+      </c>
+      <c r="G8" s="1">
+        <v>41401.666666666664</v>
+      </c>
+      <c r="H8" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I8" t="str">
+        <v>13071037775</v>
+      </c>
+      <c r="J8" t="str">
+        <v>2015-12-08 11:28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>奥迪A8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="C9" t="str">
+        <v>80</v>
+      </c>
+      <c r="D9" t="str">
+        <v>45tsi</v>
+      </c>
+      <c r="E9" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F9" t="str">
+        <v>是</v>
+      </c>
+      <c r="G9" s="1">
+        <v>41554.666666666664</v>
+      </c>
+      <c r="H9" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I9" t="str">
+        <v>13526406595</v>
+      </c>
+      <c r="J9" t="str">
+        <v>2015-12-08 11:27</v>
+      </c>
+      <c r="K9" t="str">
+        <v>刚填错了</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>长城哈弗m1</v>
+      </c>
+      <c r="B10" t="str">
+        <v>绿色</v>
+      </c>
+      <c r="C10" t="str">
+        <v>74300</v>
+      </c>
+      <c r="D10" t="str">
+        <v>1.3</v>
+      </c>
+      <c r="E10" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F10" t="str">
+        <v>否</v>
+      </c>
+      <c r="H10" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I10" t="str">
+        <v>13937778020</v>
+      </c>
+      <c r="J10" t="str">
+        <v>2015-12-08 11:26</v>
+      </c>
+      <c r="K10" t="str">
+        <v>长城首款迷你m1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>尼桑阳光</v>
+      </c>
+      <c r="B11" t="str">
+        <v>太空金</v>
+      </c>
+      <c r="C11" t="str">
+        <v>9.28万</v>
+      </c>
+      <c r="D11" t="str">
+        <v>1.5cvt变速箱</v>
+      </c>
+      <c r="E11" t="str">
+        <v>AT自动挡</v>
+      </c>
+      <c r="F11" t="str">
+        <v>否</v>
+      </c>
+      <c r="G11" s="1">
+        <v>40631.666666666664</v>
+      </c>
+      <c r="H11" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I11" t="str">
+        <v>18530822520</v>
+      </c>
+      <c r="J11" t="str">
+        <v>2015-12-08 11:26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>奥迪A8</v>
+      </c>
+      <c r="B12" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="C12" t="str">
+        <v>80</v>
+      </c>
+      <c r="D12" t="str">
+        <v>45tsi</v>
+      </c>
+      <c r="E12" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F12" t="str">
+        <v>是</v>
+      </c>
+      <c r="G12" s="1">
+        <v>41554.666666666664</v>
+      </c>
+      <c r="H12" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I12" t="str">
+        <v>13526406595</v>
+      </c>
+      <c r="J12" t="str">
+        <v>2015-12-08 11:25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>凯美瑞</v>
+      </c>
+      <c r="B13" t="str">
+        <v>白色</v>
+      </c>
+      <c r="C13" t="str">
+        <v>12</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2.0</v>
+      </c>
+      <c r="E13" t="str">
+        <v>AT自动挡</v>
+      </c>
+      <c r="F13" t="str">
+        <v>是</v>
+      </c>
+      <c r="G13" s="1">
+        <v>41036.666666666664</v>
+      </c>
+      <c r="H13" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I13" t="str">
+        <v>13663819995</v>
+      </c>
+      <c r="J13" t="str">
+        <v>2015-12-08 11:25</v>
+      </c>
+      <c r="K13" t="str">
+        <v>我是想问问价格</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>指南者</v>
+      </c>
+      <c r="B14" t="str">
+        <v>白</v>
+      </c>
+      <c r="C14" t="str">
+        <v>22</v>
+      </c>
+      <c r="D14" t="str">
+        <v>2.0</v>
+      </c>
+      <c r="E14" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F14" t="str">
+        <v>是</v>
+      </c>
+      <c r="G14" s="1">
+        <v>41572.666666666664</v>
+      </c>
+      <c r="H14" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I14" t="str">
+        <v>18103839339</v>
+      </c>
+      <c r="J14" t="str">
+        <v>2015-12-08 11:21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>进口起亚索兰托2015 七座精英版</v>
+      </c>
+      <c r="B15" t="str">
+        <v>珍珠白</v>
+      </c>
+      <c r="C15" t="str">
+        <v>28.98</v>
+      </c>
+      <c r="D15" t="str">
+        <v>2.4</v>
+      </c>
+      <c r="E15" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F15" t="str">
+        <v>是</v>
+      </c>
+      <c r="G15" s="1">
+        <v>42124.666666666664</v>
+      </c>
+      <c r="H15" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I15" t="str">
+        <v>13937170133</v>
+      </c>
+      <c r="J15" t="str">
+        <v>2015-12-08 11:21</v>
+      </c>
+      <c r="K15" t="str">
+        <v>老杨  老喜欢你了</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>进口起亚索兰托2015 七座精英版</v>
+      </c>
+      <c r="B16" t="str">
+        <v>珍珠白</v>
+      </c>
+      <c r="C16" t="str">
+        <v>28.98</v>
+      </c>
+      <c r="D16" t="str">
+        <v>2.4</v>
+      </c>
+      <c r="E16" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F16" t="str">
+        <v>是</v>
+      </c>
+      <c r="G16" s="1">
+        <v>42124.666666666664</v>
+      </c>
+      <c r="H16" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I16" t="str">
+        <v>13937170133</v>
+      </c>
+      <c r="J16" t="str">
+        <v>2015-12-08 11:21</v>
+      </c>
+      <c r="K16" t="str">
+        <v>老杨  老喜欢你了</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>天籁</v>
+      </c>
+      <c r="B17" t="str">
+        <v>银灰</v>
+      </c>
+      <c r="C17" t="str">
+        <v>22万4千6</v>
+      </c>
+      <c r="D17" t="str">
+        <v>2．5</v>
+      </c>
+      <c r="E17" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F17" t="str">
+        <v>是</v>
+      </c>
+      <c r="G17" s="1">
+        <v>40244.666666666664</v>
+      </c>
+      <c r="H17" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I17" t="str">
+        <v>13803865817</v>
+      </c>
+      <c r="J17" t="str">
+        <v>2015-12-08 11:21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>飞度</v>
+      </c>
+      <c r="B18" t="str">
+        <v>白色</v>
+      </c>
+      <c r="C18" t="str">
+        <v>105800</v>
+      </c>
+      <c r="D18" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="E18" t="str">
+        <v>AT自动挡</v>
+      </c>
+      <c r="F18" t="str">
+        <v>是</v>
+      </c>
+      <c r="G18" s="1">
+        <v>39289.666666666664</v>
+      </c>
+      <c r="H18" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I18" t="str">
+        <v>15937259873</v>
+      </c>
+      <c r="J18" t="str">
+        <v>2015-12-08 11:20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>byd f3</v>
+      </c>
+      <c r="B19" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="C19" t="str">
+        <v>65000</v>
+      </c>
+      <c r="D19" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="E19" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F19" t="str">
+        <v>是</v>
+      </c>
+      <c r="H19" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I19" t="str">
+        <v>18537118028</v>
+      </c>
+      <c r="J19" t="str">
+        <v>2015-12-08 11:19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>五菱宏光</v>
+      </c>
+      <c r="B20" t="str">
+        <v>银灰色</v>
+      </c>
+      <c r="C20" t="str">
+        <v>6万含税</v>
+      </c>
+      <c r="D20" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="E20" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F20" t="str">
+        <v>否</v>
+      </c>
+      <c r="G20" s="1">
+        <v>41094.666666666664</v>
+      </c>
+      <c r="H20" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I20" t="str">
+        <v>13014502605</v>
+      </c>
+      <c r="J20" t="str">
+        <v>2015-12-08 11:19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>别克凯越</v>
+      </c>
+      <c r="B21" t="str">
+        <v>白色</v>
+      </c>
+      <c r="C21" t="str">
+        <v>84000</v>
+      </c>
+      <c r="D21" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E21" t="str">
+        <v>AT自动挡</v>
+      </c>
+      <c r="F21" t="str">
+        <v>否</v>
+      </c>
+      <c r="G21" s="1">
+        <v>40825.666666666664</v>
+      </c>
+      <c r="H21" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I21" t="str">
+        <v>18503816107</v>
+      </c>
+      <c r="J21" t="str">
+        <v>2015-12-08 11:19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>天籁</v>
+      </c>
+      <c r="B22" t="str">
+        <v>银灰</v>
+      </c>
+      <c r="C22" t="str">
+        <v>22万4千6</v>
+      </c>
+      <c r="D22" t="str">
+        <v>2．5</v>
+      </c>
+      <c r="E22" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F22" t="str">
+        <v>是</v>
+      </c>
+      <c r="G22" s="1">
+        <v>40519.666666666664</v>
+      </c>
+      <c r="H22" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I22" t="str">
+        <v>13803865817</v>
+      </c>
+      <c r="J22" t="str">
+        <v>2015-12-08 11:19</v>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>瑞纳</v>
+      </c>
+      <c r="B23" t="str">
+        <v>宝石蓝</v>
+      </c>
+      <c r="C23" t="str">
+        <v>101900</v>
+      </c>
+      <c r="D23" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="E23" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F23" t="str">
+        <v>否</v>
+      </c>
+      <c r="H23" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I23" t="str">
+        <v>13783683805</v>
+      </c>
+      <c r="J23" t="str">
+        <v>2015-12-08 11:18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>别克</v>
+      </c>
+      <c r="B24" t="str">
+        <v>白色</v>
+      </c>
+      <c r="C24" t="str">
+        <v>132700</v>
+      </c>
+      <c r="D24" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E24" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F24" t="str">
+        <v>是</v>
+      </c>
+      <c r="G24" s="1">
+        <v>41615.666666666664</v>
+      </c>
+      <c r="H24" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I24" t="str">
+        <v>13526567775</v>
+      </c>
+      <c r="J24" t="str">
+        <v>2015-12-08 11:18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>现代名图</v>
+      </c>
+      <c r="B25" t="str">
+        <v>白</v>
+      </c>
+      <c r="C25" t="str">
+        <v>14.3万</v>
+      </c>
+      <c r="D25" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="E25" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F25" t="str">
+        <v>是</v>
+      </c>
+      <c r="H25" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I25" t="str">
+        <v>15093159104</v>
+      </c>
+      <c r="J25" t="str">
+        <v>2015-12-08 11:18</v>
+      </c>
+      <c r="K25" t="str">
+        <v>想换越野车。换个20万左右的</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>现代名图</v>
+      </c>
+      <c r="B26" t="str">
+        <v>白</v>
+      </c>
+      <c r="C26" t="str">
+        <v>14.3万</v>
+      </c>
+      <c r="D26" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="E26" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F26" t="str">
+        <v>是</v>
+      </c>
+      <c r="H26" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I26" t="str">
+        <v>15093159104</v>
+      </c>
+      <c r="J26" t="str">
+        <v>2015-12-08 11:18</v>
+      </c>
+      <c r="K26" t="str">
+        <v>想换越野车。换个20万左右的</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>别克凯越</v>
+      </c>
+      <c r="B27" t="str">
+        <v>白色</v>
+      </c>
+      <c r="C27" t="str">
+        <v>84000</v>
+      </c>
+      <c r="D27" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E27" t="str">
+        <v>AT自动挡</v>
+      </c>
+      <c r="F27" t="str">
+        <v>否</v>
+      </c>
+      <c r="G27" s="1">
+        <v>40825.666666666664</v>
+      </c>
+      <c r="H27" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I27" t="str">
+        <v>18503816107</v>
+      </c>
+      <c r="J27" t="str">
+        <v>2015-12-08 11:18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>五菱宏光</v>
+      </c>
+      <c r="B28" t="str">
+        <v>银灰色</v>
+      </c>
+      <c r="C28" t="str">
+        <v>6万（含税）</v>
+      </c>
+      <c r="D28" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="E28" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F28" t="str">
+        <v>否</v>
+      </c>
+      <c r="G28" s="1">
+        <v>41094.666666666664</v>
+      </c>
+      <c r="H28" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I28" t="str">
+        <v>13014502605</v>
+      </c>
+      <c r="J28" t="str">
+        <v>2015-12-08 11:17</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>日产NV200</v>
+      </c>
+      <c r="B29" t="str">
+        <v>银色</v>
+      </c>
+      <c r="C29" t="str">
+        <v>102000</v>
+      </c>
+      <c r="D29" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E29" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F29" t="str">
+        <v>否</v>
+      </c>
+      <c r="G29" s="1">
+        <v>41281.666666666664</v>
+      </c>
+      <c r="H29" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I29" t="str">
+        <v>13598685905</v>
+      </c>
+      <c r="J29" t="str">
+        <v>2015-12-08 11:16</v>
+      </c>
+      <c r="K29" t="str">
+        <v>我想先问问价</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>本田雅阁九代</v>
+      </c>
+      <c r="B30" t="str">
+        <v>黑</v>
+      </c>
+      <c r="C30" t="str">
+        <v>17.9</v>
+      </c>
+      <c r="D30" t="str">
+        <v>2.0L</v>
+      </c>
+      <c r="E30" t="str">
+        <v>AT自动挡</v>
+      </c>
+      <c r="F30" t="str">
+        <v>是</v>
+      </c>
+      <c r="G30" s="1">
+        <v>41827.666666666664</v>
+      </c>
+      <c r="H30" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I30" t="str">
+        <v>15981926808</v>
+      </c>
+      <c r="J30" t="str">
+        <v>2015-12-08 11:15</v>
+      </c>
+      <c r="K30" t="str">
+        <v>估估价</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>日产nv200</v>
+      </c>
+      <c r="B31" t="str">
+        <v>银色</v>
+      </c>
+      <c r="C31" t="str">
+        <v>102000</v>
+      </c>
+      <c r="D31" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E31" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F31" t="str">
+        <v>否</v>
+      </c>
+      <c r="G31" s="1">
+        <v>41276.666666666664</v>
+      </c>
+      <c r="H31" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I31" t="str">
+        <v>13598685905</v>
+      </c>
+      <c r="J31" t="str">
+        <v>2015-12-08 11:15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>现代名图</v>
+      </c>
+      <c r="B32" t="str">
+        <v>白</v>
+      </c>
+      <c r="C32" t="str">
+        <v>十四，三万</v>
+      </c>
+      <c r="D32" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="E32" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F32" t="str">
+        <v>是</v>
+      </c>
+      <c r="H32" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I32" t="str">
+        <v>15093159104</v>
+      </c>
+      <c r="J32" t="str">
+        <v>2015-12-08 11:15</v>
+      </c>
+      <c r="K32" t="str">
+        <v>帮我咕咕值，我想换个二十万左右的越界</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>昊锐</v>
+      </c>
+      <c r="B33" t="str">
+        <v>灰色</v>
+      </c>
+      <c r="C33" t="str">
+        <v>183900</v>
+      </c>
+      <c r="D33" t="str">
+        <v>1.8t</v>
+      </c>
+      <c r="E33" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F33" t="str">
+        <v>是</v>
+      </c>
+      <c r="H33" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I33" t="str">
+        <v>13937131519</v>
+      </c>
+      <c r="J33" t="str">
+        <v>2015-12-08 11:14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>奥迪a6 12款手动</v>
+      </c>
+      <c r="B34" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="C34" t="str">
+        <v>37</v>
+      </c>
+      <c r="D34" t="str">
+        <v>20t</v>
+      </c>
+      <c r="E34" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F34" t="str">
+        <v>是</v>
+      </c>
+      <c r="G34" s="1">
+        <v>41554.666666666664</v>
+      </c>
+      <c r="H34" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I34" t="str">
+        <v>15136210210</v>
+      </c>
+      <c r="J34" t="str">
+        <v>2015-12-08 11:14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>纳智捷</v>
+      </c>
+      <c r="B35" t="str">
+        <v>白</v>
+      </c>
+      <c r="C35" t="str">
+        <v>15.5</v>
+      </c>
+      <c r="D35" t="str">
+        <v>1.8t</v>
+      </c>
+      <c r="E35" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F35" t="str">
+        <v>是</v>
+      </c>
+      <c r="G35" s="1">
+        <v>42118.666666666664</v>
+      </c>
+      <c r="H35" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I35" t="str">
+        <v>18236437116</v>
+      </c>
+      <c r="J35" t="str">
+        <v>2015-12-08 11:13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>别克君越</v>
+      </c>
+      <c r="B36" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="C36" t="str">
+        <v>31</v>
+      </c>
+      <c r="D36" t="str">
+        <v>2.4</v>
+      </c>
+      <c r="E36" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F36" t="str">
+        <v>是</v>
+      </c>
+      <c r="G36" s="1">
+        <v>40275.666666666664</v>
+      </c>
+      <c r="H36" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I36" t="str">
+        <v>13383800222</v>
+      </c>
+      <c r="J36" t="str">
+        <v>2015-12-08 11:13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>昊锐</v>
+      </c>
+      <c r="B37" t="str">
+        <v>灰色</v>
+      </c>
+      <c r="C37" t="str">
+        <v>183900</v>
+      </c>
+      <c r="D37" t="str">
+        <v>1.8t</v>
+      </c>
+      <c r="E37" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F37" t="str">
+        <v>是</v>
+      </c>
+      <c r="H37" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I37" t="str">
+        <v>13937131519</v>
+      </c>
+      <c r="J37" t="str">
+        <v>2015-12-08 11:11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>现代悦动</v>
+      </c>
+      <c r="B38" t="str">
+        <v>银</v>
+      </c>
+      <c r="C38" t="str">
+        <v>10.2</v>
+      </c>
+      <c r="D38" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E38" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F38" t="str">
+        <v>是</v>
+      </c>
+      <c r="G38" s="1">
+        <v>40975.666666666664</v>
+      </c>
+      <c r="H38" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I38" t="str">
+        <v>15565066886</v>
+      </c>
+      <c r="J38" t="str">
+        <v>2015-12-08 11:09</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>mini</v>
+      </c>
+      <c r="B39" t="str">
+        <v>白色</v>
+      </c>
+      <c r="C39" t="str">
+        <v>25.8</v>
+      </c>
+      <c r="D39" t="str">
+        <v>1.5t</v>
+      </c>
+      <c r="E39" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F39" t="str">
+        <v>是</v>
+      </c>
+      <c r="G39" s="1">
+        <v>42011.666666666664</v>
+      </c>
+      <c r="H39" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I39" t="str">
+        <v>13526406595</v>
+      </c>
+      <c r="J39" t="str">
+        <v>2015-12-08 11:09</v>
+      </c>
+      <c r="K39" t="str">
+        <v>裸车25.8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>大众朗逸</v>
+      </c>
+      <c r="B40" t="str">
+        <v>银色</v>
+      </c>
+      <c r="C40" t="str">
+        <v>12.5</v>
+      </c>
+      <c r="D40" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E40" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F40" t="str">
+        <v>否</v>
+      </c>
+      <c r="G40" s="1">
+        <v>40753.666666666664</v>
+      </c>
+      <c r="H40" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I40" t="str">
+        <v>18538188576</v>
+      </c>
+      <c r="J40" t="str">
+        <v>2015-12-7 13:9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>大众朗逸</v>
+      </c>
+      <c r="B41" t="str">
+        <v>黑</v>
+      </c>
+      <c r="C41" t="str">
+        <v>113800</v>
+      </c>
+      <c r="D41" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E41" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F41" t="str">
+        <v>是</v>
+      </c>
+      <c r="G41" s="1">
+        <v>41212.666666666664</v>
+      </c>
+      <c r="H41" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I41" t="str">
+        <v>13803812561</v>
+      </c>
+      <c r="J41" t="str">
+        <v>2015-12-7 12:10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>北京现代</v>
+      </c>
+      <c r="B42" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="C42" t="str">
+        <v>12万</v>
+      </c>
+      <c r="D42" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E42" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F42" t="str">
+        <v>是</v>
+      </c>
+      <c r="H42" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I42" t="str">
+        <v>13733162852</v>
+      </c>
+      <c r="J42" t="str">
+        <v>2015-12-7 11:56</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>雪弗兰赛欧</v>
+      </c>
+      <c r="B43" t="str">
+        <v>白</v>
+      </c>
+      <c r="C43" t="str">
+        <v>51800</v>
+      </c>
+      <c r="D43" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="E43" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F43" t="str">
+        <v>否</v>
+      </c>
+      <c r="G43" s="1">
+        <v>41760.666666666664</v>
+      </c>
+      <c r="H43" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I43" t="str">
+        <v>15517171989</v>
+      </c>
+      <c r="J43" t="str">
+        <v>2015-12-7 11:47</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>大众</v>
+      </c>
+      <c r="B44" t="str">
+        <v>黑</v>
+      </c>
+      <c r="C44" t="str">
+        <v>22万</v>
+      </c>
+      <c r="D44" t="str">
+        <v>1.8T</v>
+      </c>
+      <c r="E44" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F44" t="str">
+        <v>是</v>
+      </c>
+      <c r="G44" s="1">
+        <v>41826.666666666664</v>
+      </c>
+      <c r="H44" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I44" t="str">
+        <v>13298188789</v>
+      </c>
+      <c r="J44" t="str">
+        <v>2015-12-7 11:46</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>昊锐1.8t优雅版</v>
+      </c>
+      <c r="B45" t="str">
+        <v>灰色</v>
+      </c>
+      <c r="C45" t="str">
+        <v>183900</v>
+      </c>
+      <c r="D45" t="str">
+        <v>1.8t</v>
+      </c>
+      <c r="E45" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F45" t="str">
+        <v>是</v>
+      </c>
+      <c r="H45" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I45" t="str">
+        <v>13937131519</v>
+      </c>
+      <c r="J45" t="str">
+        <v>2015-12-7 11:34</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>本田思铭</v>
+      </c>
+      <c r="B46" t="str">
+        <v>白色</v>
+      </c>
+      <c r="C46" t="str">
+        <v>135000</v>
+      </c>
+      <c r="D46" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="E46" t="str">
+        <v>AT自动挡</v>
+      </c>
+      <c r="F46" t="str">
+        <v>否</v>
+      </c>
+      <c r="G46" s="1">
+        <v>41470.666666666664</v>
+      </c>
+      <c r="H46" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I46" t="str">
+        <v>18624903719</v>
+      </c>
+      <c r="J46" t="str">
+        <v>2015-12-7 11:32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>奔驰E260L</v>
+      </c>
+      <c r="B47" t="str">
+        <v>黑</v>
+      </c>
+      <c r="C47" t="str">
+        <v>43万</v>
+      </c>
+      <c r="E47" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F47" t="str">
+        <v>是</v>
+      </c>
+      <c r="H47" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I47" t="str">
+        <v>15981981731</v>
+      </c>
+      <c r="J47" t="str">
+        <v>2015-12-7 11:31</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>奔驰E260L</v>
+      </c>
+      <c r="B48" t="str">
+        <v>黑</v>
+      </c>
+      <c r="C48" t="str">
+        <v>43万</v>
+      </c>
+      <c r="E48" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F48" t="str">
+        <v>是</v>
+      </c>
+      <c r="H48" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I48" t="str">
+        <v>15981981731</v>
+      </c>
+      <c r="J48" t="str">
+        <v>2015-12-7 11:31</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>劳恩斯酷派10款</v>
+      </c>
+      <c r="B49" t="str">
+        <v>红色</v>
+      </c>
+      <c r="C49" t="str">
+        <v>22</v>
+      </c>
+      <c r="D49" t="str">
+        <v>2.0T</v>
+      </c>
+      <c r="E49" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F49" t="str">
+        <v>是</v>
+      </c>
+      <c r="G49" s="1">
+        <v>42161.666666666664</v>
+      </c>
+      <c r="H49" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I49" t="str">
+        <v>18703629771</v>
+      </c>
+      <c r="J49" t="str">
+        <v>2015-12-7 11:31</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>雪铁龙世嘉两厢 9万公里</v>
+      </c>
+      <c r="B50" t="str">
+        <v>酒红</v>
+      </c>
+      <c r="C50" t="str">
+        <v>11.98万</v>
+      </c>
+      <c r="D50" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E50" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F50" t="str">
+        <v>否</v>
+      </c>
+      <c r="G50" s="1">
+        <v>40251.666666666664</v>
+      </c>
+      <c r="H50" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I50" t="str">
+        <v>18037331711</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2015-12-7 11:29</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>尼桑西马</v>
+      </c>
+      <c r="B51" t="str">
+        <v>银灰</v>
+      </c>
+      <c r="C51" t="str">
+        <v>90</v>
+      </c>
+      <c r="D51" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="E51" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F51" t="str">
+        <v>是</v>
+      </c>
+      <c r="G51" s="1">
+        <v>38417.666666666664</v>
+      </c>
+      <c r="H51" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I51" t="str">
+        <v>18239933156</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2015-12-7 11:24</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>劳恩斯酷派</v>
+      </c>
+      <c r="B52" t="str">
+        <v>红</v>
+      </c>
+      <c r="C52" t="str">
+        <v>发票价格24</v>
+      </c>
+      <c r="D52" t="str">
+        <v>2.0T</v>
+      </c>
+      <c r="E52" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F52" t="str">
+        <v>是</v>
+      </c>
+      <c r="G52" s="1">
+        <v>42161.666666666664</v>
+      </c>
+      <c r="H52" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I52" t="str">
+        <v>18703629771</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2015-12-7 11:21</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>日产鹂威</v>
+      </c>
+      <c r="B53" t="str">
+        <v>银</v>
+      </c>
+      <c r="C53" t="str">
+        <v>89800</v>
+      </c>
+      <c r="D53" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E53" t="str">
+        <v>AT自动挡</v>
+      </c>
+      <c r="F53" t="str">
+        <v>否</v>
+      </c>
+      <c r="G53" s="1">
+        <v>40883.666666666664</v>
+      </c>
+      <c r="H53" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I53" t="str">
+        <v>13939078195</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2015-12-7 11:17</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>大众帕萨特</v>
+      </c>
+      <c r="B54" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="C54" t="str">
+        <v>20万</v>
+      </c>
+      <c r="D54" t="str">
+        <v>1.8T</v>
+      </c>
+      <c r="E54" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F54" t="str">
+        <v>否</v>
+      </c>
+      <c r="G54" s="1">
+        <v>39579.666666666664</v>
+      </c>
+      <c r="H54" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I54" t="str">
+        <v>15936234888</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2015-12-7 11:17</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>现代新胜达</v>
+      </c>
+      <c r="B55" t="str">
+        <v>白色</v>
+      </c>
+      <c r="C55" t="str">
+        <v>249800</v>
+      </c>
+      <c r="D55" t="str">
+        <v>2.4</v>
+      </c>
+      <c r="E55" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F55" t="str">
+        <v>是</v>
+      </c>
+      <c r="G55" s="1">
+        <v>41431.666666666664</v>
+      </c>
+      <c r="H55" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I55" t="str">
+        <v>15736735555</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2015-12-7 11:16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>高尔夫</v>
+      </c>
+      <c r="B56" t="str">
+        <v>白</v>
+      </c>
+      <c r="C56" t="str">
+        <v>12.8万</v>
+      </c>
+      <c r="D56" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E56" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F56" t="str">
+        <v>是</v>
+      </c>
+      <c r="G56" s="1">
+        <v>41461.666666666664</v>
+      </c>
+      <c r="H56" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I56" t="str">
+        <v>18625581159</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2015-12-7 11:15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>迈锐宝5万公里</v>
+      </c>
+      <c r="B57" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="C57" t="str">
+        <v>17.5</v>
+      </c>
+      <c r="D57" t="str">
+        <v>1.6t</v>
+      </c>
+      <c r="E57" t="str">
+        <v>AT自动挡</v>
+      </c>
+      <c r="F57" t="str">
+        <v>是</v>
+      </c>
+      <c r="G57" s="1">
+        <v>41429.666666666664</v>
+      </c>
+      <c r="H57" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I57" t="str">
+        <v>15038258085</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2015-12-7 11:15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>东风风行x5.</v>
+      </c>
+      <c r="B58" t="str">
+        <v>酒红</v>
+      </c>
+      <c r="C58" t="str">
+        <v>裸车价95000</v>
+      </c>
+      <c r="D58" t="str">
+        <v>1.8T.       跑了2万㎞   想问问还能值多少钱？</v>
+      </c>
+      <c r="E58" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F58" t="str">
+        <v>是</v>
+      </c>
+      <c r="G58" s="1">
+        <v>41849.666666666664</v>
+      </c>
+      <c r="H58" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I58" t="str">
+        <v>15038052116</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2015-12-7 11:14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>大众高尔夫</v>
+      </c>
+      <c r="B59" t="str">
+        <v>玄清蓝</v>
+      </c>
+      <c r="C59" t="str">
+        <v>12.58</v>
+      </c>
+      <c r="D59" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E59" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F59" t="str">
+        <v>是</v>
+      </c>
+      <c r="G59" s="1">
+        <v>40953.666666666664</v>
+      </c>
+      <c r="H59" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I59" t="str">
+        <v>13949146629</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2015-12-7 11:14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>起亚</v>
+      </c>
+      <c r="B60" t="str">
+        <v>白色</v>
+      </c>
+      <c r="C60" t="str">
+        <v>250000</v>
+      </c>
+      <c r="D60" t="str">
+        <v>2.2T</v>
+      </c>
+      <c r="E60" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F60" t="str">
+        <v>是</v>
+      </c>
+      <c r="G60" s="1">
+        <v>41927.666666666664</v>
+      </c>
+      <c r="H60" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I60" t="str">
+        <v>18736058815</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2015-12-7 11:14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>现代瑞纳</v>
+      </c>
+      <c r="B61" t="str">
+        <v>银色</v>
+      </c>
+      <c r="C61" t="str">
+        <v>68000</v>
+      </c>
+      <c r="D61" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="E61" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F61" t="str">
+        <v>否</v>
+      </c>
+      <c r="G61" s="1">
+        <v>41941.666666666664</v>
+      </c>
+      <c r="H61" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I61" t="str">
+        <v>15003841110</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2015-12-7 11:14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>长城c30</v>
+      </c>
+      <c r="B62" t="str">
+        <v>银色</v>
+      </c>
+      <c r="C62" t="str">
+        <v>6.75</v>
+      </c>
+      <c r="D62" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="E62" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F62" t="str">
+        <v>否</v>
+      </c>
+      <c r="G62" s="1">
+        <v>41235.666666666664</v>
+      </c>
+      <c r="H62" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I62" t="str">
+        <v>15238394657</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2015-12-7 11:13</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>大众新款捷达15款</v>
+      </c>
+      <c r="B63" t="str">
+        <v>银</v>
+      </c>
+      <c r="C63" t="str">
+        <v>10</v>
+      </c>
+      <c r="D63" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="E63" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F63" t="str">
+        <v>是</v>
+      </c>
+      <c r="G63" s="1">
+        <v>41965.666666666664</v>
+      </c>
+      <c r="H63" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I63" t="str">
+        <v>18920513231</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2015-12-7 11:13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>大众新款捷达15款</v>
+      </c>
+      <c r="B64" t="str">
+        <v>银</v>
+      </c>
+      <c r="C64" t="str">
+        <v>92800</v>
+      </c>
+      <c r="D64" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="E64" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F64" t="str">
+        <v>是</v>
+      </c>
+      <c r="G64" s="1">
+        <v>41965.666666666664</v>
+      </c>
+      <c r="H64" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I64" t="str">
+        <v>18920513231</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2015-12-7 11:11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>劳恩斯酷派</v>
+      </c>
+      <c r="B65" t="str">
+        <v>红</v>
+      </c>
+      <c r="C65" t="str">
+        <v>24.8</v>
+      </c>
+      <c r="D65" t="str">
+        <v>2.0T</v>
+      </c>
+      <c r="E65" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F65" t="str">
+        <v>是</v>
+      </c>
+      <c r="G65" s="1">
+        <v>42155.666666666664</v>
+      </c>
+      <c r="H65" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I65" t="str">
+        <v>18703629771</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2015-12-7 11:7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>雪弗兰克鲁兹</v>
+      </c>
+      <c r="B66" t="str">
+        <v>黑</v>
+      </c>
+      <c r="C66" t="str">
+        <v>15</v>
+      </c>
+      <c r="D66" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="E66" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F66" t="str">
+        <v>是</v>
+      </c>
+      <c r="G66" s="1">
+        <v>40427.666666666664</v>
+      </c>
+      <c r="H66" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I66" t="str">
+        <v>13525599168</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2015-12-7 9:47</v>
       </c>
     </row>
   </sheetData>

--- a/private/sijiache/sellcarinfo.xlsx
+++ b/private/sijiache/sellcarinfo.xlsx
@@ -373,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K64"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -406,101 +406,2018 @@
       <c r="J1" t="str">
         <v>创建时间</v>
       </c>
+      <c r="K1" t="str">
+        <v>备注</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>布加迪</v>
+        <v>丰田威驰</v>
       </c>
       <c r="B2" t="str">
-        <v>白色</v>
+        <v>银色</v>
       </c>
       <c r="C2" t="str">
-        <v>300万</v>
+        <v>9.0万</v>
       </c>
       <c r="D2" t="str">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="E2" t="str">
-        <v>手自一体</v>
+        <v>AT自动挡</v>
       </c>
       <c r="F2" t="str">
-        <v>是</v>
-      </c>
-      <c r="G2" s="1">
-        <v>42338.666666666664</v>
+        <v>否</v>
       </c>
       <c r="H2" t="str">
         <v>想卖车</v>
       </c>
       <c r="I2" t="str">
-        <v>13344556677</v>
+        <v>13503717677</v>
       </c>
       <c r="J2" t="str">
-        <v>2015-12-1 15:57</v>
+        <v>2015-12-08 11:36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>奇瑞QQ</v>
+        <v>菲亚特菲翔</v>
       </c>
       <c r="B3" t="str">
-        <v>绿色</v>
+        <v>钛金灰</v>
       </c>
       <c r="C3" t="str">
-        <v>5</v>
+        <v>13.6万</v>
       </c>
       <c r="D3" t="str">
-        <v>1</v>
+        <v>1.4t</v>
       </c>
       <c r="E3" t="str">
-        <v>AT自动挡</v>
+        <v>手自一体</v>
       </c>
       <c r="F3" t="str">
-        <v>否</v>
+        <v>是</v>
       </c>
       <c r="G3" s="1">
-        <v>42339.666666666664</v>
+        <v>41401.666666666664</v>
       </c>
       <c r="H3" t="str">
         <v>问问价</v>
       </c>
       <c r="I3" t="str">
-        <v>13344556677</v>
+        <v>13071037775</v>
       </c>
       <c r="J3" t="str">
-        <v>2015-12-1 15:56</v>
+        <v>2015-12-08 11:29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>五菱之光</v>
+        <v>起亚赛拉图</v>
       </c>
       <c r="B4" t="str">
-        <v>银色</v>
+        <v>黑色</v>
       </c>
       <c r="C4" t="str">
-        <v>5</v>
+        <v>8.1万</v>
       </c>
       <c r="D4" t="str">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E4" t="str">
         <v>MT手动挡</v>
       </c>
       <c r="F4" t="str">
-        <v>是</v>
+        <v>否</v>
       </c>
       <c r="G4" s="1">
-        <v>42340.666666666664</v>
+        <v>39514.666666666664</v>
       </c>
       <c r="H4" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I4" t="str">
+        <v>13592688650</v>
+      </c>
+      <c r="J4" t="str">
+        <v>2015-12-08 11:28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>宝来</v>
+      </c>
+      <c r="B5" t="str">
+        <v>银色</v>
+      </c>
+      <c r="C5" t="str">
+        <v>11.3</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E5" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F5" t="str">
+        <v>是</v>
+      </c>
+      <c r="G5" s="1">
+        <v>41962.666666666664</v>
+      </c>
+      <c r="H5" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I5" t="str">
+        <v>18211600555</v>
+      </c>
+      <c r="J5" t="str">
+        <v>2015-12-08 11:28</v>
+      </c>
+      <c r="K5" t="str">
+        <v>看看还保值不？</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>菲亚特菲翔</v>
+      </c>
+      <c r="B6" t="str">
+        <v>钛金灰</v>
+      </c>
+      <c r="C6" t="str">
+        <v>13.6万</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1.4t</v>
+      </c>
+      <c r="E6" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F6" t="str">
+        <v>是</v>
+      </c>
+      <c r="G6" s="1">
+        <v>41401.666666666664</v>
+      </c>
+      <c r="H6" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I6" t="str">
+        <v>13071037775</v>
+      </c>
+      <c r="J6" t="str">
+        <v>2015-12-08 11:28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>奥迪A8</v>
+      </c>
+      <c r="B7" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="C7" t="str">
+        <v>80</v>
+      </c>
+      <c r="D7" t="str">
+        <v>45tsi</v>
+      </c>
+      <c r="E7" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F7" t="str">
+        <v>是</v>
+      </c>
+      <c r="G7" s="1">
+        <v>41554.666666666664</v>
+      </c>
+      <c r="H7" t="str">
         <v>想卖车</v>
       </c>
-      <c r="I4" t="str">
-        <v>13322332233</v>
-      </c>
-      <c r="J4" t="str">
-        <v>2015-12-1 15:54</v>
+      <c r="I7" t="str">
+        <v>13526406595</v>
+      </c>
+      <c r="J7" t="str">
+        <v>2015-12-08 11:27</v>
+      </c>
+      <c r="K7" t="str">
+        <v>刚填错了</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>长城哈弗m1</v>
+      </c>
+      <c r="B8" t="str">
+        <v>绿色</v>
+      </c>
+      <c r="C8" t="str">
+        <v>74300</v>
+      </c>
+      <c r="D8" t="str">
+        <v>1.3</v>
+      </c>
+      <c r="E8" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F8" t="str">
+        <v>否</v>
+      </c>
+      <c r="H8" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I8" t="str">
+        <v>13937778020</v>
+      </c>
+      <c r="J8" t="str">
+        <v>2015-12-08 11:26</v>
+      </c>
+      <c r="K8" t="str">
+        <v>长城首款迷你m1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>尼桑阳光</v>
+      </c>
+      <c r="B9" t="str">
+        <v>太空金</v>
+      </c>
+      <c r="C9" t="str">
+        <v>9.28万</v>
+      </c>
+      <c r="D9" t="str">
+        <v>1.5cvt变速箱</v>
+      </c>
+      <c r="E9" t="str">
+        <v>AT自动挡</v>
+      </c>
+      <c r="F9" t="str">
+        <v>否</v>
+      </c>
+      <c r="G9" s="1">
+        <v>40631.666666666664</v>
+      </c>
+      <c r="H9" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I9" t="str">
+        <v>18530822520</v>
+      </c>
+      <c r="J9" t="str">
+        <v>2015-12-08 11:26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>奥迪A8</v>
+      </c>
+      <c r="B10" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="C10" t="str">
+        <v>80</v>
+      </c>
+      <c r="D10" t="str">
+        <v>45tsi</v>
+      </c>
+      <c r="E10" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F10" t="str">
+        <v>是</v>
+      </c>
+      <c r="G10" s="1">
+        <v>41554.666666666664</v>
+      </c>
+      <c r="H10" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I10" t="str">
+        <v>13526406595</v>
+      </c>
+      <c r="J10" t="str">
+        <v>2015-12-08 11:25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>凯美瑞</v>
+      </c>
+      <c r="B11" t="str">
+        <v>白色</v>
+      </c>
+      <c r="C11" t="str">
+        <v>12</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2.0</v>
+      </c>
+      <c r="E11" t="str">
+        <v>AT自动挡</v>
+      </c>
+      <c r="F11" t="str">
+        <v>是</v>
+      </c>
+      <c r="G11" s="1">
+        <v>41036.666666666664</v>
+      </c>
+      <c r="H11" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I11" t="str">
+        <v>13663819995</v>
+      </c>
+      <c r="J11" t="str">
+        <v>2015-12-08 11:25</v>
+      </c>
+      <c r="K11" t="str">
+        <v>我是想问问价格</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>指南者</v>
+      </c>
+      <c r="B12" t="str">
+        <v>白</v>
+      </c>
+      <c r="C12" t="str">
+        <v>22</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2.0</v>
+      </c>
+      <c r="E12" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F12" t="str">
+        <v>是</v>
+      </c>
+      <c r="G12" s="1">
+        <v>41572.666666666664</v>
+      </c>
+      <c r="H12" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I12" t="str">
+        <v>18103839339</v>
+      </c>
+      <c r="J12" t="str">
+        <v>2015-12-08 11:21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>进口起亚索兰托2015 七座精英版</v>
+      </c>
+      <c r="B13" t="str">
+        <v>珍珠白</v>
+      </c>
+      <c r="C13" t="str">
+        <v>28.98</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2.4</v>
+      </c>
+      <c r="E13" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F13" t="str">
+        <v>是</v>
+      </c>
+      <c r="G13" s="1">
+        <v>42124.666666666664</v>
+      </c>
+      <c r="H13" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I13" t="str">
+        <v>13937170133</v>
+      </c>
+      <c r="J13" t="str">
+        <v>2015-12-08 11:21</v>
+      </c>
+      <c r="K13" t="str">
+        <v>老杨  老喜欢你了</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>进口起亚索兰托2015 七座精英版</v>
+      </c>
+      <c r="B14" t="str">
+        <v>珍珠白</v>
+      </c>
+      <c r="C14" t="str">
+        <v>28.98</v>
+      </c>
+      <c r="D14" t="str">
+        <v>2.4</v>
+      </c>
+      <c r="E14" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F14" t="str">
+        <v>是</v>
+      </c>
+      <c r="G14" s="1">
+        <v>42124.666666666664</v>
+      </c>
+      <c r="H14" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I14" t="str">
+        <v>13937170133</v>
+      </c>
+      <c r="J14" t="str">
+        <v>2015-12-08 11:21</v>
+      </c>
+      <c r="K14" t="str">
+        <v>老杨  老喜欢你了</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>天籁</v>
+      </c>
+      <c r="B15" t="str">
+        <v>银灰</v>
+      </c>
+      <c r="C15" t="str">
+        <v>22万4千6</v>
+      </c>
+      <c r="D15" t="str">
+        <v>2．5</v>
+      </c>
+      <c r="E15" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F15" t="str">
+        <v>是</v>
+      </c>
+      <c r="G15" s="1">
+        <v>40244.666666666664</v>
+      </c>
+      <c r="H15" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I15" t="str">
+        <v>13803865817</v>
+      </c>
+      <c r="J15" t="str">
+        <v>2015-12-08 11:21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>飞度</v>
+      </c>
+      <c r="B16" t="str">
+        <v>白色</v>
+      </c>
+      <c r="C16" t="str">
+        <v>105800</v>
+      </c>
+      <c r="D16" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="E16" t="str">
+        <v>AT自动挡</v>
+      </c>
+      <c r="F16" t="str">
+        <v>是</v>
+      </c>
+      <c r="G16" s="1">
+        <v>39289.666666666664</v>
+      </c>
+      <c r="H16" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I16" t="str">
+        <v>15937259873</v>
+      </c>
+      <c r="J16" t="str">
+        <v>2015-12-08 11:20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>byd f3</v>
+      </c>
+      <c r="B17" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="C17" t="str">
+        <v>65000</v>
+      </c>
+      <c r="D17" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="E17" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F17" t="str">
+        <v>是</v>
+      </c>
+      <c r="H17" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I17" t="str">
+        <v>18537118028</v>
+      </c>
+      <c r="J17" t="str">
+        <v>2015-12-08 11:19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>五菱宏光</v>
+      </c>
+      <c r="B18" t="str">
+        <v>银灰色</v>
+      </c>
+      <c r="C18" t="str">
+        <v>6万含税</v>
+      </c>
+      <c r="D18" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="E18" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F18" t="str">
+        <v>否</v>
+      </c>
+      <c r="G18" s="1">
+        <v>41094.666666666664</v>
+      </c>
+      <c r="H18" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I18" t="str">
+        <v>13014502605</v>
+      </c>
+      <c r="J18" t="str">
+        <v>2015-12-08 11:19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>别克凯越</v>
+      </c>
+      <c r="B19" t="str">
+        <v>白色</v>
+      </c>
+      <c r="C19" t="str">
+        <v>84000</v>
+      </c>
+      <c r="D19" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E19" t="str">
+        <v>AT自动挡</v>
+      </c>
+      <c r="F19" t="str">
+        <v>否</v>
+      </c>
+      <c r="G19" s="1">
+        <v>40825.666666666664</v>
+      </c>
+      <c r="H19" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I19" t="str">
+        <v>18503816107</v>
+      </c>
+      <c r="J19" t="str">
+        <v>2015-12-08 11:19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>天籁</v>
+      </c>
+      <c r="B20" t="str">
+        <v>银灰</v>
+      </c>
+      <c r="C20" t="str">
+        <v>22万4千6</v>
+      </c>
+      <c r="D20" t="str">
+        <v>2．5</v>
+      </c>
+      <c r="E20" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F20" t="str">
+        <v>是</v>
+      </c>
+      <c r="G20" s="1">
+        <v>40519.666666666664</v>
+      </c>
+      <c r="H20" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I20" t="str">
+        <v>13803865817</v>
+      </c>
+      <c r="J20" t="str">
+        <v>2015-12-08 11:19</v>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>瑞纳</v>
+      </c>
+      <c r="B21" t="str">
+        <v>宝石蓝</v>
+      </c>
+      <c r="C21" t="str">
+        <v>101900</v>
+      </c>
+      <c r="D21" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="E21" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F21" t="str">
+        <v>否</v>
+      </c>
+      <c r="H21" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I21" t="str">
+        <v>13783683805</v>
+      </c>
+      <c r="J21" t="str">
+        <v>2015-12-08 11:18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>别克</v>
+      </c>
+      <c r="B22" t="str">
+        <v>白色</v>
+      </c>
+      <c r="C22" t="str">
+        <v>132700</v>
+      </c>
+      <c r="D22" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E22" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F22" t="str">
+        <v>是</v>
+      </c>
+      <c r="G22" s="1">
+        <v>41615.666666666664</v>
+      </c>
+      <c r="H22" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I22" t="str">
+        <v>13526567775</v>
+      </c>
+      <c r="J22" t="str">
+        <v>2015-12-08 11:18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>现代名图</v>
+      </c>
+      <c r="B23" t="str">
+        <v>白</v>
+      </c>
+      <c r="C23" t="str">
+        <v>14.3万</v>
+      </c>
+      <c r="D23" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="E23" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F23" t="str">
+        <v>是</v>
+      </c>
+      <c r="H23" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I23" t="str">
+        <v>15093159104</v>
+      </c>
+      <c r="J23" t="str">
+        <v>2015-12-08 11:18</v>
+      </c>
+      <c r="K23" t="str">
+        <v>想换越野车。换个20万左右的</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>现代名图</v>
+      </c>
+      <c r="B24" t="str">
+        <v>白</v>
+      </c>
+      <c r="C24" t="str">
+        <v>14.3万</v>
+      </c>
+      <c r="D24" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="E24" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F24" t="str">
+        <v>是</v>
+      </c>
+      <c r="H24" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I24" t="str">
+        <v>15093159104</v>
+      </c>
+      <c r="J24" t="str">
+        <v>2015-12-08 11:18</v>
+      </c>
+      <c r="K24" t="str">
+        <v>想换越野车。换个20万左右的</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>别克凯越</v>
+      </c>
+      <c r="B25" t="str">
+        <v>白色</v>
+      </c>
+      <c r="C25" t="str">
+        <v>84000</v>
+      </c>
+      <c r="D25" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E25" t="str">
+        <v>AT自动挡</v>
+      </c>
+      <c r="F25" t="str">
+        <v>否</v>
+      </c>
+      <c r="G25" s="1">
+        <v>40825.666666666664</v>
+      </c>
+      <c r="H25" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I25" t="str">
+        <v>18503816107</v>
+      </c>
+      <c r="J25" t="str">
+        <v>2015-12-08 11:18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>五菱宏光</v>
+      </c>
+      <c r="B26" t="str">
+        <v>银灰色</v>
+      </c>
+      <c r="C26" t="str">
+        <v>6万（含税）</v>
+      </c>
+      <c r="D26" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="E26" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F26" t="str">
+        <v>否</v>
+      </c>
+      <c r="G26" s="1">
+        <v>41094.666666666664</v>
+      </c>
+      <c r="H26" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I26" t="str">
+        <v>13014502605</v>
+      </c>
+      <c r="J26" t="str">
+        <v>2015-12-08 11:17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>日产NV200</v>
+      </c>
+      <c r="B27" t="str">
+        <v>银色</v>
+      </c>
+      <c r="C27" t="str">
+        <v>102000</v>
+      </c>
+      <c r="D27" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E27" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F27" t="str">
+        <v>否</v>
+      </c>
+      <c r="G27" s="1">
+        <v>41281.666666666664</v>
+      </c>
+      <c r="H27" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I27" t="str">
+        <v>13598685905</v>
+      </c>
+      <c r="J27" t="str">
+        <v>2015-12-08 11:16</v>
+      </c>
+      <c r="K27" t="str">
+        <v>我想先问问价</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>本田雅阁九代</v>
+      </c>
+      <c r="B28" t="str">
+        <v>黑</v>
+      </c>
+      <c r="C28" t="str">
+        <v>17.9</v>
+      </c>
+      <c r="D28" t="str">
+        <v>2.0L</v>
+      </c>
+      <c r="E28" t="str">
+        <v>AT自动挡</v>
+      </c>
+      <c r="F28" t="str">
+        <v>是</v>
+      </c>
+      <c r="G28" s="1">
+        <v>41827.666666666664</v>
+      </c>
+      <c r="H28" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I28" t="str">
+        <v>15981926808</v>
+      </c>
+      <c r="J28" t="str">
+        <v>2015-12-08 11:15</v>
+      </c>
+      <c r="K28" t="str">
+        <v>估估价</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>日产nv200</v>
+      </c>
+      <c r="B29" t="str">
+        <v>银色</v>
+      </c>
+      <c r="C29" t="str">
+        <v>102000</v>
+      </c>
+      <c r="D29" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E29" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F29" t="str">
+        <v>否</v>
+      </c>
+      <c r="G29" s="1">
+        <v>41276.666666666664</v>
+      </c>
+      <c r="H29" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I29" t="str">
+        <v>13598685905</v>
+      </c>
+      <c r="J29" t="str">
+        <v>2015-12-08 11:15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>现代名图</v>
+      </c>
+      <c r="B30" t="str">
+        <v>白</v>
+      </c>
+      <c r="C30" t="str">
+        <v>十四，三万</v>
+      </c>
+      <c r="D30" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="E30" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F30" t="str">
+        <v>是</v>
+      </c>
+      <c r="H30" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I30" t="str">
+        <v>15093159104</v>
+      </c>
+      <c r="J30" t="str">
+        <v>2015-12-08 11:15</v>
+      </c>
+      <c r="K30" t="str">
+        <v>帮我咕咕值，我想换个二十万左右的越界</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>昊锐</v>
+      </c>
+      <c r="B31" t="str">
+        <v>灰色</v>
+      </c>
+      <c r="C31" t="str">
+        <v>183900</v>
+      </c>
+      <c r="D31" t="str">
+        <v>1.8t</v>
+      </c>
+      <c r="E31" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F31" t="str">
+        <v>是</v>
+      </c>
+      <c r="H31" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I31" t="str">
+        <v>13937131519</v>
+      </c>
+      <c r="J31" t="str">
+        <v>2015-12-08 11:14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>奥迪a6 12款手动</v>
+      </c>
+      <c r="B32" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="C32" t="str">
+        <v>37</v>
+      </c>
+      <c r="D32" t="str">
+        <v>20t</v>
+      </c>
+      <c r="E32" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F32" t="str">
+        <v>是</v>
+      </c>
+      <c r="G32" s="1">
+        <v>41554.666666666664</v>
+      </c>
+      <c r="H32" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I32" t="str">
+        <v>15136210210</v>
+      </c>
+      <c r="J32" t="str">
+        <v>2015-12-08 11:14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>纳智捷</v>
+      </c>
+      <c r="B33" t="str">
+        <v>白</v>
+      </c>
+      <c r="C33" t="str">
+        <v>15.5</v>
+      </c>
+      <c r="D33" t="str">
+        <v>1.8t</v>
+      </c>
+      <c r="E33" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F33" t="str">
+        <v>是</v>
+      </c>
+      <c r="G33" s="1">
+        <v>42118.666666666664</v>
+      </c>
+      <c r="H33" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I33" t="str">
+        <v>18236437116</v>
+      </c>
+      <c r="J33" t="str">
+        <v>2015-12-08 11:13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>别克君越</v>
+      </c>
+      <c r="B34" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="C34" t="str">
+        <v>31</v>
+      </c>
+      <c r="D34" t="str">
+        <v>2.4</v>
+      </c>
+      <c r="E34" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F34" t="str">
+        <v>是</v>
+      </c>
+      <c r="G34" s="1">
+        <v>40275.666666666664</v>
+      </c>
+      <c r="H34" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I34" t="str">
+        <v>13383800222</v>
+      </c>
+      <c r="J34" t="str">
+        <v>2015-12-08 11:13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>昊锐</v>
+      </c>
+      <c r="B35" t="str">
+        <v>灰色</v>
+      </c>
+      <c r="C35" t="str">
+        <v>183900</v>
+      </c>
+      <c r="D35" t="str">
+        <v>1.8t</v>
+      </c>
+      <c r="E35" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F35" t="str">
+        <v>是</v>
+      </c>
+      <c r="H35" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I35" t="str">
+        <v>13937131519</v>
+      </c>
+      <c r="J35" t="str">
+        <v>2015-12-08 11:11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>现代悦动</v>
+      </c>
+      <c r="B36" t="str">
+        <v>银</v>
+      </c>
+      <c r="C36" t="str">
+        <v>10.2</v>
+      </c>
+      <c r="D36" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E36" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F36" t="str">
+        <v>是</v>
+      </c>
+      <c r="G36" s="1">
+        <v>40975.666666666664</v>
+      </c>
+      <c r="H36" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I36" t="str">
+        <v>15565066886</v>
+      </c>
+      <c r="J36" t="str">
+        <v>2015-12-08 11:09</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>mini</v>
+      </c>
+      <c r="B37" t="str">
+        <v>白色</v>
+      </c>
+      <c r="C37" t="str">
+        <v>25.8</v>
+      </c>
+      <c r="D37" t="str">
+        <v>1.5t</v>
+      </c>
+      <c r="E37" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F37" t="str">
+        <v>是</v>
+      </c>
+      <c r="G37" s="1">
+        <v>42011.666666666664</v>
+      </c>
+      <c r="H37" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I37" t="str">
+        <v>13526406595</v>
+      </c>
+      <c r="J37" t="str">
+        <v>2015-12-08 11:09</v>
+      </c>
+      <c r="K37" t="str">
+        <v>裸车25.8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>大众朗逸</v>
+      </c>
+      <c r="B38" t="str">
+        <v>银色</v>
+      </c>
+      <c r="C38" t="str">
+        <v>12.5</v>
+      </c>
+      <c r="D38" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E38" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F38" t="str">
+        <v>否</v>
+      </c>
+      <c r="G38" s="1">
+        <v>40753.666666666664</v>
+      </c>
+      <c r="H38" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I38" t="str">
+        <v>18538188576</v>
+      </c>
+      <c r="J38" t="str">
+        <v>2015-12-7 13:9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>大众朗逸</v>
+      </c>
+      <c r="B39" t="str">
+        <v>黑</v>
+      </c>
+      <c r="C39" t="str">
+        <v>113800</v>
+      </c>
+      <c r="D39" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E39" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F39" t="str">
+        <v>是</v>
+      </c>
+      <c r="G39" s="1">
+        <v>41212.666666666664</v>
+      </c>
+      <c r="H39" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I39" t="str">
+        <v>13803812561</v>
+      </c>
+      <c r="J39" t="str">
+        <v>2015-12-7 12:10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>北京现代</v>
+      </c>
+      <c r="B40" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="C40" t="str">
+        <v>12万</v>
+      </c>
+      <c r="D40" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E40" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F40" t="str">
+        <v>是</v>
+      </c>
+      <c r="H40" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I40" t="str">
+        <v>13733162852</v>
+      </c>
+      <c r="J40" t="str">
+        <v>2015-12-7 11:56</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>雪弗兰赛欧</v>
+      </c>
+      <c r="B41" t="str">
+        <v>白</v>
+      </c>
+      <c r="C41" t="str">
+        <v>51800</v>
+      </c>
+      <c r="D41" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="E41" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F41" t="str">
+        <v>否</v>
+      </c>
+      <c r="G41" s="1">
+        <v>41760.666666666664</v>
+      </c>
+      <c r="H41" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I41" t="str">
+        <v>15517171989</v>
+      </c>
+      <c r="J41" t="str">
+        <v>2015-12-7 11:47</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>大众</v>
+      </c>
+      <c r="B42" t="str">
+        <v>黑</v>
+      </c>
+      <c r="C42" t="str">
+        <v>22万</v>
+      </c>
+      <c r="D42" t="str">
+        <v>1.8T</v>
+      </c>
+      <c r="E42" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F42" t="str">
+        <v>是</v>
+      </c>
+      <c r="G42" s="1">
+        <v>41826.666666666664</v>
+      </c>
+      <c r="H42" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I42" t="str">
+        <v>13298188789</v>
+      </c>
+      <c r="J42" t="str">
+        <v>2015-12-7 11:46</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>昊锐1.8t优雅版</v>
+      </c>
+      <c r="B43" t="str">
+        <v>灰色</v>
+      </c>
+      <c r="C43" t="str">
+        <v>183900</v>
+      </c>
+      <c r="D43" t="str">
+        <v>1.8t</v>
+      </c>
+      <c r="E43" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F43" t="str">
+        <v>是</v>
+      </c>
+      <c r="H43" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I43" t="str">
+        <v>13937131519</v>
+      </c>
+      <c r="J43" t="str">
+        <v>2015-12-7 11:34</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>本田思铭</v>
+      </c>
+      <c r="B44" t="str">
+        <v>白色</v>
+      </c>
+      <c r="C44" t="str">
+        <v>135000</v>
+      </c>
+      <c r="D44" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="E44" t="str">
+        <v>AT自动挡</v>
+      </c>
+      <c r="F44" t="str">
+        <v>否</v>
+      </c>
+      <c r="G44" s="1">
+        <v>41470.666666666664</v>
+      </c>
+      <c r="H44" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I44" t="str">
+        <v>18624903719</v>
+      </c>
+      <c r="J44" t="str">
+        <v>2015-12-7 11:32</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>奔驰E260L</v>
+      </c>
+      <c r="B45" t="str">
+        <v>黑</v>
+      </c>
+      <c r="C45" t="str">
+        <v>43万</v>
+      </c>
+      <c r="E45" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F45" t="str">
+        <v>是</v>
+      </c>
+      <c r="H45" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I45" t="str">
+        <v>15981981731</v>
+      </c>
+      <c r="J45" t="str">
+        <v>2015-12-7 11:31</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>奔驰E260L</v>
+      </c>
+      <c r="B46" t="str">
+        <v>黑</v>
+      </c>
+      <c r="C46" t="str">
+        <v>43万</v>
+      </c>
+      <c r="E46" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F46" t="str">
+        <v>是</v>
+      </c>
+      <c r="H46" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I46" t="str">
+        <v>15981981731</v>
+      </c>
+      <c r="J46" t="str">
+        <v>2015-12-7 11:31</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>劳恩斯酷派10款</v>
+      </c>
+      <c r="B47" t="str">
+        <v>红色</v>
+      </c>
+      <c r="C47" t="str">
+        <v>22</v>
+      </c>
+      <c r="D47" t="str">
+        <v>2.0T</v>
+      </c>
+      <c r="E47" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F47" t="str">
+        <v>是</v>
+      </c>
+      <c r="G47" s="1">
+        <v>42161.666666666664</v>
+      </c>
+      <c r="H47" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I47" t="str">
+        <v>18703629771</v>
+      </c>
+      <c r="J47" t="str">
+        <v>2015-12-7 11:31</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>雪铁龙世嘉两厢 9万公里</v>
+      </c>
+      <c r="B48" t="str">
+        <v>酒红</v>
+      </c>
+      <c r="C48" t="str">
+        <v>11.98万</v>
+      </c>
+      <c r="D48" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E48" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F48" t="str">
+        <v>否</v>
+      </c>
+      <c r="G48" s="1">
+        <v>40251.666666666664</v>
+      </c>
+      <c r="H48" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I48" t="str">
+        <v>18037331711</v>
+      </c>
+      <c r="J48" t="str">
+        <v>2015-12-7 11:29</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>尼桑西马</v>
+      </c>
+      <c r="B49" t="str">
+        <v>银灰</v>
+      </c>
+      <c r="C49" t="str">
+        <v>90</v>
+      </c>
+      <c r="D49" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="E49" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F49" t="str">
+        <v>是</v>
+      </c>
+      <c r="G49" s="1">
+        <v>38417.666666666664</v>
+      </c>
+      <c r="H49" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I49" t="str">
+        <v>18239933156</v>
+      </c>
+      <c r="J49" t="str">
+        <v>2015-12-7 11:24</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>劳恩斯酷派</v>
+      </c>
+      <c r="B50" t="str">
+        <v>红</v>
+      </c>
+      <c r="C50" t="str">
+        <v>发票价格24</v>
+      </c>
+      <c r="D50" t="str">
+        <v>2.0T</v>
+      </c>
+      <c r="E50" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F50" t="str">
+        <v>是</v>
+      </c>
+      <c r="G50" s="1">
+        <v>42161.666666666664</v>
+      </c>
+      <c r="H50" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I50" t="str">
+        <v>18703629771</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2015-12-7 11:21</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>日产鹂威</v>
+      </c>
+      <c r="B51" t="str">
+        <v>银</v>
+      </c>
+      <c r="C51" t="str">
+        <v>89800</v>
+      </c>
+      <c r="D51" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E51" t="str">
+        <v>AT自动挡</v>
+      </c>
+      <c r="F51" t="str">
+        <v>否</v>
+      </c>
+      <c r="G51" s="1">
+        <v>40883.666666666664</v>
+      </c>
+      <c r="H51" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I51" t="str">
+        <v>13939078195</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2015-12-7 11:17</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>大众帕萨特</v>
+      </c>
+      <c r="B52" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="C52" t="str">
+        <v>20万</v>
+      </c>
+      <c r="D52" t="str">
+        <v>1.8T</v>
+      </c>
+      <c r="E52" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F52" t="str">
+        <v>否</v>
+      </c>
+      <c r="G52" s="1">
+        <v>39579.666666666664</v>
+      </c>
+      <c r="H52" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I52" t="str">
+        <v>15936234888</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2015-12-7 11:17</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>现代新胜达</v>
+      </c>
+      <c r="B53" t="str">
+        <v>白色</v>
+      </c>
+      <c r="C53" t="str">
+        <v>249800</v>
+      </c>
+      <c r="D53" t="str">
+        <v>2.4</v>
+      </c>
+      <c r="E53" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F53" t="str">
+        <v>是</v>
+      </c>
+      <c r="G53" s="1">
+        <v>41431.666666666664</v>
+      </c>
+      <c r="H53" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I53" t="str">
+        <v>15736735555</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2015-12-7 11:16</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>高尔夫</v>
+      </c>
+      <c r="B54" t="str">
+        <v>白</v>
+      </c>
+      <c r="C54" t="str">
+        <v>12.8万</v>
+      </c>
+      <c r="D54" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E54" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F54" t="str">
+        <v>是</v>
+      </c>
+      <c r="G54" s="1">
+        <v>41461.666666666664</v>
+      </c>
+      <c r="H54" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I54" t="str">
+        <v>18625581159</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2015-12-7 11:15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>迈锐宝5万公里</v>
+      </c>
+      <c r="B55" t="str">
+        <v>黑色</v>
+      </c>
+      <c r="C55" t="str">
+        <v>17.5</v>
+      </c>
+      <c r="D55" t="str">
+        <v>1.6t</v>
+      </c>
+      <c r="E55" t="str">
+        <v>AT自动挡</v>
+      </c>
+      <c r="F55" t="str">
+        <v>是</v>
+      </c>
+      <c r="G55" s="1">
+        <v>41429.666666666664</v>
+      </c>
+      <c r="H55" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I55" t="str">
+        <v>15038258085</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2015-12-7 11:15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>东风风行x5.</v>
+      </c>
+      <c r="B56" t="str">
+        <v>酒红</v>
+      </c>
+      <c r="C56" t="str">
+        <v>裸车价95000</v>
+      </c>
+      <c r="D56" t="str">
+        <v>1.8T.       跑了2万㎞   想问问还能值多少钱？</v>
+      </c>
+      <c r="E56" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F56" t="str">
+        <v>是</v>
+      </c>
+      <c r="G56" s="1">
+        <v>41849.666666666664</v>
+      </c>
+      <c r="H56" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I56" t="str">
+        <v>15038052116</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2015-12-7 11:14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>大众高尔夫</v>
+      </c>
+      <c r="B57" t="str">
+        <v>玄清蓝</v>
+      </c>
+      <c r="C57" t="str">
+        <v>12.58</v>
+      </c>
+      <c r="D57" t="str">
+        <v>1.6</v>
+      </c>
+      <c r="E57" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F57" t="str">
+        <v>是</v>
+      </c>
+      <c r="G57" s="1">
+        <v>40953.666666666664</v>
+      </c>
+      <c r="H57" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I57" t="str">
+        <v>13949146629</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2015-12-7 11:14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>起亚</v>
+      </c>
+      <c r="B58" t="str">
+        <v>白色</v>
+      </c>
+      <c r="C58" t="str">
+        <v>250000</v>
+      </c>
+      <c r="D58" t="str">
+        <v>2.2T</v>
+      </c>
+      <c r="E58" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F58" t="str">
+        <v>是</v>
+      </c>
+      <c r="G58" s="1">
+        <v>41927.666666666664</v>
+      </c>
+      <c r="H58" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I58" t="str">
+        <v>18736058815</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2015-12-7 11:14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>现代瑞纳</v>
+      </c>
+      <c r="B59" t="str">
+        <v>银色</v>
+      </c>
+      <c r="C59" t="str">
+        <v>68000</v>
+      </c>
+      <c r="D59" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="E59" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F59" t="str">
+        <v>否</v>
+      </c>
+      <c r="G59" s="1">
+        <v>41941.666666666664</v>
+      </c>
+      <c r="H59" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I59" t="str">
+        <v>15003841110</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2015-12-7 11:14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>长城c30</v>
+      </c>
+      <c r="B60" t="str">
+        <v>银色</v>
+      </c>
+      <c r="C60" t="str">
+        <v>6.75</v>
+      </c>
+      <c r="D60" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="E60" t="str">
+        <v>MT手动挡</v>
+      </c>
+      <c r="F60" t="str">
+        <v>否</v>
+      </c>
+      <c r="G60" s="1">
+        <v>41235.666666666664</v>
+      </c>
+      <c r="H60" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I60" t="str">
+        <v>15238394657</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2015-12-7 11:13</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>大众新款捷达15款</v>
+      </c>
+      <c r="B61" t="str">
+        <v>银</v>
+      </c>
+      <c r="C61" t="str">
+        <v>10</v>
+      </c>
+      <c r="D61" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="E61" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F61" t="str">
+        <v>是</v>
+      </c>
+      <c r="G61" s="1">
+        <v>41965.666666666664</v>
+      </c>
+      <c r="H61" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I61" t="str">
+        <v>18920513231</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2015-12-7 11:13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>大众新款捷达15款</v>
+      </c>
+      <c r="B62" t="str">
+        <v>银</v>
+      </c>
+      <c r="C62" t="str">
+        <v>92800</v>
+      </c>
+      <c r="D62" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="E62" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F62" t="str">
+        <v>是</v>
+      </c>
+      <c r="G62" s="1">
+        <v>41965.666666666664</v>
+      </c>
+      <c r="H62" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I62" t="str">
+        <v>18920513231</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2015-12-7 11:11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>劳恩斯酷派</v>
+      </c>
+      <c r="B63" t="str">
+        <v>红</v>
+      </c>
+      <c r="C63" t="str">
+        <v>24.8</v>
+      </c>
+      <c r="D63" t="str">
+        <v>2.0T</v>
+      </c>
+      <c r="E63" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F63" t="str">
+        <v>是</v>
+      </c>
+      <c r="G63" s="1">
+        <v>42155.666666666664</v>
+      </c>
+      <c r="H63" t="str">
+        <v>问问价</v>
+      </c>
+      <c r="I63" t="str">
+        <v>18703629771</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2015-12-7 11:7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>雪弗兰克鲁兹</v>
+      </c>
+      <c r="B64" t="str">
+        <v>黑</v>
+      </c>
+      <c r="C64" t="str">
+        <v>15</v>
+      </c>
+      <c r="D64" t="str">
+        <v>1.8</v>
+      </c>
+      <c r="E64" t="str">
+        <v>手自一体</v>
+      </c>
+      <c r="F64" t="str">
+        <v>是</v>
+      </c>
+      <c r="G64" s="1">
+        <v>40427.666666666664</v>
+      </c>
+      <c r="H64" t="str">
+        <v>想卖车</v>
+      </c>
+      <c r="I64" t="str">
+        <v>13525599168</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2015-12-7 9:47</v>
       </c>
     </row>
   </sheetData>
